--- a/gtin.xlsx
+++ b/gtin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.effem.com/personal/mikhail_ten_effem_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.effem.com/personal/mikhail_ten_effem_com/Documents/Desktop/telegram_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEA4E12-AB25-4804-9631-D16D6CE456C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CAEA4E12-AB25-4804-9631-D16D6CE456C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E28DE0-BB08-48C5-AF14-314A51F575AE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E08BFFBB-E6AE-4960-9AC2-24F172C25D1B}"/>
   </bookViews>
@@ -438,132 +438,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346264CB-EBF3-4715-8400-3BC9C5F96CB4}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>10401449</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
         <v>4605922028673</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>"N"&amp;C2</f>
+      <c r="C2" s="1" t="str">
+        <f>"N"&amp;B2</f>
         <v>N4605922028673</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>60001602</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="2">
         <v>4605922028666</v>
       </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D8" si="0">"N"&amp;C3</f>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C8" si="0">"N"&amp;B3</f>
         <v>N4605922028666</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>60001732</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
         <v>14605922025082</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>N14605922025082</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>60001560</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2">
         <v>14605922025075</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>N14605922025075</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>10248507</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2">
         <v>14605922025099</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>N14605922025099</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>60001562</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2">
         <v>14605922025099</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>N14605922025099</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>10248498</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
         <v>14605922025082</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>N14605922025082</v>
       </c>

--- a/gtin.xlsx
+++ b/gtin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.effem.com/personal/mikhail_ten_effem_com/Documents/Desktop/telegram_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CAEA4E12-AB25-4804-9631-D16D6CE456C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E28DE0-BB08-48C5-AF14-314A51F575AE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{CAEA4E12-AB25-4804-9631-D16D6CE456C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F14B5AD-9B91-4B90-BEC9-F387D2B5F736}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E08BFFBB-E6AE-4960-9AC2-24F172C25D1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Mars мороженое ведёрко 8*300г CEAB</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>ntin</t>
+  </si>
+  <si>
+    <t>N4605922028673</t>
+  </si>
+  <si>
+    <t>N4605922028666</t>
+  </si>
+  <si>
+    <t>N14605922025082</t>
+  </si>
+  <si>
+    <t>N14605922025075</t>
+  </si>
+  <si>
+    <t>N14605922025099</t>
   </si>
 </sst>
 </file>
@@ -119,6 +134,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,7 +460,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,9 +488,8 @@
       <c r="B2" s="2">
         <v>4605922028673</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>"N"&amp;B2</f>
-        <v>N4605922028673</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -481,9 +499,8 @@
       <c r="B3" s="2">
         <v>4605922028666</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C8" si="0">"N"&amp;B3</f>
-        <v>N4605922028666</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -493,9 +510,8 @@
       <c r="B4" s="2">
         <v>14605922025082</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N14605922025082</v>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -505,9 +521,8 @@
       <c r="B5" s="2">
         <v>14605922025075</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N14605922025075</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -517,9 +532,8 @@
       <c r="B6" s="2">
         <v>14605922025099</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N14605922025099</v>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -529,9 +543,8 @@
       <c r="B7" s="2">
         <v>14605922025099</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N14605922025099</v>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -541,9 +554,8 @@
       <c r="B8" s="2">
         <v>14605922025082</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>N14605922025082</v>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
